--- a/python/Reconnaissance/Gant_2019.xlsx
+++ b/python/Reconnaissance/Gant_2019.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_06B8F8DD8B1AC463DFFF4B870004B63EB6D6797D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13365" tabRatio="415"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -20,10 +21,16 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -188,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1108,6 +1115,21 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1125,21 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1170,7 +1177,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1192,9 +1199,12 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
@@ -1243,9 +1253,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <border>
@@ -1391,12 +1398,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -1554,20 +1561,22 @@
       <sheetName val="Diagramme de Gantt"/>
       <sheetName val="Données dynamiques masquées"/>
       <sheetName val="À propos"/>
+      <sheetName val="Gant_2019_v2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F36" totalsRowShown="0">
-  <autoFilter ref="B6:F36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F36" totalsRowShown="0">
+  <autoFilter ref="B6:F36" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1575,11 +1584,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(LEN([1]!Tâches[[#This Row],[Date de début]])=0,"",(INT([1]!Tâches[[#This Row],[Date de fin]])-INT([1]!Tâches[[#This Row],[Date de début]]))-(INT([1]!Tâches[[#This Row],[Date de début]])-INT([1]!Tâches[[#This Row],[Date de début]]))+1),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1854,30 +1863,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="63" width="3.5703125" customWidth="1"/>
-    <col min="68" max="69" width="10.28515625"/>
+    <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="63" width="3.59765625" customWidth="1"/>
+    <col min="68" max="69" width="10.265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1890,22 +1899,22 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>43581</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="62"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -1913,17 +1922,17 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="40">
         <v>0</v>
       </c>
@@ -1934,14 +1943,14 @@
       <c r="L3" s="48"/>
       <c r="M3" s="47"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="41">
         <v>1</v>
       </c>
@@ -2030,7 +2039,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>43636</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2514,9 +2523,9 @@
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="26">
-        <f ca="1">IFERROR(IF(LEN([1]!Tâches[[#This Row],[Date de début]])=0,"",(INT([1]!Tâches[[#This Row],[Date de fin]])-INT([1]!Tâches[[#This Row],[Date de début]]))-(INT([1]!Tâches[[#This Row],[Date de début]])-INT([1]!Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>8</v>
+      <c r="F7" s="26" t="str">
+        <f>IFERROR(IF(LEN([1]!Tâches[[#This Row],[Date de début]])=0,"",(INT([1]!Tâches[[#This Row],[Date de fin]])-INT([1]!Tâches[[#This Row],[Date de début]]))-(INT([1]!Tâches[[#This Row],[Date de début]])-INT([1]!Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v/>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -2575,7 +2584,7 @@
       <c r="BJ7" s="42"/>
       <c r="BK7" s="42"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2812,20 +2821,20 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="61">
+      <c r="E9" s="55">
         <f ca="1">TODAY()</f>
         <v>43581</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="57">
         <v>1</v>
       </c>
       <c r="G9" s="20"/>
@@ -3054,17 +3063,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="64">
+      <c r="E10" s="55"/>
+      <c r="F10" s="58" t="str">
         <f>IFERROR(IF(LEN([1]!Tâches[[#This Row],[Date de début]])=0,"",(INT([1]!Tâches[[#This Row],[Date de fin]])-INT([1]!Tâches[[#This Row],[Date de début]]))-(INT([1]!Tâches[[#This Row],[Date de début]])-INT([1]!Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="29"/>
@@ -3124,20 +3133,20 @@
       <c r="BJ10" s="29"/>
       <c r="BK10" s="29"/>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="61">
+      <c r="E11" s="55">
         <f ca="1">TODAY()</f>
         <v>43581</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="57">
         <v>8</v>
       </c>
       <c r="G11" s="20"/>
@@ -3366,20 +3375,20 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="61">
+      <c r="E12" s="55">
         <f ca="1">TODAY()</f>
         <v>43581</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="57">
         <v>8</v>
       </c>
       <c r="G12" s="20"/>
@@ -3608,19 +3617,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="61">
+      <c r="E13" s="55">
         <v>43589</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="57">
         <v>5</v>
       </c>
       <c r="G13" s="20"/>
@@ -3849,19 +3858,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="61">
+      <c r="E14" s="55">
         <v>43589</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="57">
         <v>5</v>
       </c>
       <c r="G14" s="20"/>
@@ -4090,19 +4099,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="62">
+      <c r="E15" s="56">
         <v>43589</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="57">
         <v>11</v>
       </c>
       <c r="G15" s="20"/>
@@ -4163,7 +4172,7 @@
       <c r="BJ15" s="29"/>
       <c r="BK15" s="29"/>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="18" t="s">
         <v>33</v>
@@ -4172,10 +4181,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="61">
+      <c r="E16" s="55">
         <v>43594</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="57">
         <v>6</v>
       </c>
       <c r="G16" s="20"/>
@@ -4236,19 +4245,19 @@
       <c r="BJ16" s="29"/>
       <c r="BK16" s="29"/>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="61">
+      <c r="E17" s="55">
         <v>43600</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="57">
         <v>9</v>
       </c>
       <c r="G17" s="20"/>
@@ -4309,7 +4318,7 @@
       <c r="BJ17" s="29"/>
       <c r="BK17" s="29"/>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="33"/>
       <c r="C18" s="27"/>
@@ -4542,7 +4551,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="31"/>
       <c r="C19" s="27"/>
@@ -4775,7 +4784,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="31"/>
       <c r="C20" s="27"/>
@@ -5008,7 +5017,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="31"/>
       <c r="C21" s="27"/>
@@ -5241,7 +5250,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
@@ -5474,7 +5483,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
@@ -5707,7 +5716,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="33"/>
       <c r="C24" s="27"/>
@@ -5940,7 +5949,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="31"/>
       <c r="C25" s="27"/>
@@ -6173,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="31"/>
       <c r="C26" s="27"/>
@@ -6406,7 +6415,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="31"/>
       <c r="C27" s="27"/>
@@ -6639,7 +6648,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="31"/>
       <c r="C28" s="27"/>
@@ -6872,7 +6881,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
       <c r="C29" s="27"/>
@@ -7105,7 +7114,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="33"/>
       <c r="C30" s="27"/>
@@ -7338,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
       <c r="C31" s="27"/>
@@ -7571,7 +7580,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
       <c r="C32" s="27"/>
@@ -7804,7 +7813,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
       <c r="C33" s="27"/>
@@ -8037,7 +8046,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
       <c r="C34" s="27"/>
@@ -8270,7 +8279,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
       <c r="C35" s="27"/>
@@ -8503,7 +8512,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
@@ -8738,7 +8747,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
@@ -8807,12 +8816,12 @@
       <c r="BJ37" s="28"/>
       <c r="BK37" s="28"/>
     </row>
-    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="5"/>
       <c r="F38" s="14"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C39" s="6"/>
     </row>
   </sheetData>
@@ -8837,22 +8846,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK36">
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK36">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -8958,33 +8967,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.1328125" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
